--- a/calibration/table2_source_fixtures.xlsx
+++ b/calibration/table2_source_fixtures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robma\Documents\Work\ilemt_papers\calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999316B2-57A3-4178-B2F4-55CCCFD60B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803D2535-1448-4E6B-804C-B4BCD813EC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14970" yWindow="7695" windowWidth="13245" windowHeight="7830" xr2:uid="{5D7C67CD-972B-4CBF-BC15-D765573F58E4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>RMS</t>
   </si>
@@ -51,12 +51,6 @@
     <t>RxRyRz (degrees)</t>
   </si>
   <si>
-    <t>No source fixture</t>
-  </si>
-  <si>
-    <t>Source fixture</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -66,10 +60,13 @@
     <t>source fixtures?</t>
   </si>
   <si>
-    <t>Test data: source fixtures?</t>
-  </si>
-  <si>
     <t>Calibrate data:</t>
+  </si>
+  <si>
+    <t>Test data: source fixtures</t>
+  </si>
+  <si>
+    <t>Test data: no source fixtures</t>
   </si>
 </sst>
 </file>
@@ -108,7 +105,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -123,26 +120,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -179,30 +156,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -224,60 +177,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -663,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9B9F5E-DE7B-4195-A914-1E6D8E28BA0D}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,166 +611,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="15"/>
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
         <f>[1]Sheet1!F4</f>
         <v>0.3220060130641641</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C4" s="2">
         <f>[1]Sheet1!G4</f>
         <v>0.82834158000689395</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D4" s="4">
         <f>[1]Sheet1!H4</f>
         <v>0.28005355875987198</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E4" s="5">
         <f>[1]Sheet1!I4</f>
         <v>0.64031875255130177</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F4" s="3">
         <f>[1]Sheet1!N4</f>
         <v>1.3784088869988398</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G4" s="2">
         <f>[1]Sheet1!O4</f>
         <v>3.8672349413164064</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H4" s="2">
         <f>[1]Sheet1!P4</f>
         <v>0.66208338545410839</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I4" s="2">
         <f>[1]Sheet1!Q4</f>
         <v>1.7575804686139003</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
         <f>[1]Sheet1!F5</f>
         <v>0.4309974459420538</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C5" s="2">
         <f>[1]Sheet1!G5</f>
         <v>1.1095895242204583</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D5" s="4">
         <f>[1]Sheet1!H5</f>
         <v>0.32983068048413688</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E5" s="5">
         <f>[1]Sheet1!I5</f>
         <v>0.82938981371097797</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F5" s="2">
         <f>[1]Sheet1!N5</f>
         <v>0.70020070039678139</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G5" s="2">
         <f>[1]Sheet1!O5</f>
         <v>2.3159528267242133</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H5" s="2">
         <f>[1]Sheet1!P5</f>
         <v>0.43087833172117601</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I5" s="2">
         <f>[1]Sheet1!Q5</f>
         <v>1.0904822752149212</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="16"/>
-    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
+  <mergeCells count="6">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/calibration/table2_source_fixtures.xlsx
+++ b/calibration/table2_source_fixtures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robma\Documents\Work\ilemt_papers\calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803D2535-1448-4E6B-804C-B4BCD813EC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3D71F3C-1E45-4A4C-ACCA-614E3A3D1DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14970" yWindow="7695" windowWidth="13245" windowHeight="7830" xr2:uid="{5D7C67CD-972B-4CBF-BC15-D765573F58E4}"/>
+    <workbookView visibility="hidden" xWindow="4680" yWindow="4680" windowWidth="34560" windowHeight="19140" xr2:uid="{5D7C67CD-972B-4CBF-BC15-D765573F58E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Table2" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -192,28 +193,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -605,77 +606,77 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="13" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="8"/>
+      <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -712,7 +713,7 @@
         <v>1.7575804686139003</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>

--- a/calibration/table2_source_fixtures.xlsx
+++ b/calibration/table2_source_fixtures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robma\Documents\Work\ilemt_papers\calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3D71F3C-1E45-4A4C-ACCA-614E3A3D1DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F405ED8-5DE9-49C8-AD6C-DC67B6AECF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="hidden" xWindow="4680" yWindow="4680" windowWidth="34560" windowHeight="19140" xr2:uid="{5D7C67CD-972B-4CBF-BC15-D765573F58E4}"/>
+    <workbookView xWindow="8196" yWindow="18864" windowWidth="14988" windowHeight="6792" xr2:uid="{5D7C67CD-972B-4CBF-BC15-D765573F58E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Table2" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -86,7 +85,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -180,41 +179,39 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -236,70 +233,102 @@
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="4">
-          <cell r="B4">
-            <v>0.20169901228894177</v>
-          </cell>
-          <cell r="F4">
-            <v>0.3220060130641641</v>
-          </cell>
-          <cell r="G4">
-            <v>0.82834158000689395</v>
-          </cell>
-          <cell r="H4">
-            <v>0.28005355875987198</v>
-          </cell>
-          <cell r="I4">
-            <v>0.64031875255130177</v>
-          </cell>
-          <cell r="N4">
-            <v>1.3784088869988398</v>
-          </cell>
-          <cell r="O4">
-            <v>3.8672349413164064</v>
-          </cell>
-          <cell r="P4">
-            <v>0.66208338545410839</v>
-          </cell>
-          <cell r="Q4">
-            <v>1.7575804686139003</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="F5">
-            <v>0.4309974459420538</v>
-          </cell>
-          <cell r="G5">
-            <v>1.1095895242204583</v>
-          </cell>
-          <cell r="H5">
-            <v>0.32983068048413688</v>
-          </cell>
-          <cell r="I5">
-            <v>0.82938981371097797</v>
-          </cell>
-          <cell r="N5">
-            <v>0.70020070039678139</v>
-          </cell>
-          <cell r="O5">
-            <v>2.3159528267242133</v>
-          </cell>
-          <cell r="P5">
-            <v>0.43087833172117601</v>
-          </cell>
-          <cell r="Q5">
-            <v>1.0904822752149212</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
+  <oleLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" progId="Excel.Sheet.12">
+    <oleItems>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice Requires="x14">
+          <x14:oleItem name="!Error stats!R4C14:R4C17" advise="1">
+            <x14:values cols="4">
+              <value>
+                <val>4.5594831352365901</val>
+              </value>
+              <value>
+                <val>12.344549508447102</val>
+              </value>
+              <value>
+                <val>1.8246372218996534</val>
+              </value>
+              <value>
+                <val>5.2159749292658475</val>
+              </value>
+            </x14:values>
+          </x14:oleItem>
+        </mc:Choice>
+        <mc:Fallback>
+          <oleItem name="!Error stats!R4C14:R4C17" advise="1"/>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice Requires="x14">
+          <x14:oleItem name="!Error stats!R4C6:R4C9" advise="1">
+            <x14:values cols="4">
+              <value>
+                <val>0.45156805827987784</val>
+              </value>
+              <value>
+                <val>1.3044023148183825</val>
+              </value>
+              <value>
+                <val>0.27469341877840853</val>
+              </value>
+              <value>
+                <val>0.64227560401111072</val>
+              </value>
+            </x14:values>
+          </x14:oleItem>
+        </mc:Choice>
+        <mc:Fallback>
+          <oleItem name="!Error stats!R4C6:R4C9" advise="1"/>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice Requires="x14">
+          <x14:oleItem name="!Error stats!R5C14:R5C17" advise="1">
+            <x14:values cols="4">
+              <value>
+                <val>2.2710956871302348</val>
+              </value>
+              <value>
+                <val>5.9312366381643784</val>
+              </value>
+              <value>
+                <val>1.0974303795083338</val>
+              </value>
+              <value>
+                <val>3.400564659715593</val>
+              </value>
+            </x14:values>
+          </x14:oleItem>
+        </mc:Choice>
+        <mc:Fallback>
+          <oleItem name="!Error stats!R5C14:R5C17" advise="1"/>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice Requires="x14">
+          <x14:oleItem name="!Error stats!R5C6:R5C9" advise="1">
+            <x14:values cols="4">
+              <value>
+                <val>0.87793323047682681</val>
+              </value>
+              <value>
+                <val>2.0962676481595031</val>
+              </value>
+              <value>
+                <val>0.53910231829652577</val>
+              </value>
+              <value>
+                <val>1.3845684193091312</val>
+              </value>
+            </x14:values>
+          </x14:oleItem>
+        </mc:Choice>
+        <mc:Fallback>
+          <oleItem name="!Error stats!R5C6:R5C9" advise="1"/>
+        </mc:Fallback>
+      </mc:AlternateContent>
+    </oleItems>
+  </oleLink>
 </externalLink>
 </file>
 
@@ -603,151 +632,140 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="10"/>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="11" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="14" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="14"/>
+      <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
-        <f>[1]Sheet1!F4</f>
-        <v>0.3220060130641641</v>
-      </c>
-      <c r="C4" s="2">
-        <f>[1]Sheet1!G4</f>
-        <v>0.82834158000689395</v>
-      </c>
-      <c r="D4" s="4">
-        <f>[1]Sheet1!H4</f>
-        <v>0.28005355875987198</v>
-      </c>
-      <c r="E4" s="5">
-        <f>[1]Sheet1!I4</f>
-        <v>0.64031875255130177</v>
-      </c>
-      <c r="F4" s="3">
-        <f>[1]Sheet1!N4</f>
-        <v>1.3784088869988398</v>
-      </c>
-      <c r="G4" s="2">
-        <f>[1]Sheet1!O4</f>
-        <v>3.8672349413164064</v>
-      </c>
-      <c r="H4" s="2">
-        <f>[1]Sheet1!P4</f>
-        <v>0.66208338545410839</v>
-      </c>
-      <c r="I4" s="2">
-        <f>[1]Sheet1!Q4</f>
-        <v>1.7575804686139003</v>
+      <c r="B4" s="11">
+        <f t="array" ref="B4:E4">[1]!'!Error stats!R4C6:R4C9'</f>
+        <v>0.45156805827987784</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1.3044023148183825</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.27469341877840853</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.64227560401111072</v>
+      </c>
+      <c r="F4" s="14">
+        <f t="array" ref="F4:I4">[1]!'!Error stats!R4C14:R4C17'</f>
+        <v>4.5594831352365901</v>
+      </c>
+      <c r="G4" s="11">
+        <v>12.344549508447102</v>
+      </c>
+      <c r="H4" s="11">
+        <v>1.8246372218996534</v>
+      </c>
+      <c r="I4" s="11">
+        <v>5.2159749292658475</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <f>[1]Sheet1!F5</f>
-        <v>0.4309974459420538</v>
-      </c>
-      <c r="C5" s="2">
-        <f>[1]Sheet1!G5</f>
-        <v>1.1095895242204583</v>
-      </c>
-      <c r="D5" s="4">
-        <f>[1]Sheet1!H5</f>
-        <v>0.32983068048413688</v>
-      </c>
-      <c r="E5" s="5">
-        <f>[1]Sheet1!I5</f>
-        <v>0.82938981371097797</v>
-      </c>
-      <c r="F5" s="2">
-        <f>[1]Sheet1!N5</f>
-        <v>0.70020070039678139</v>
-      </c>
-      <c r="G5" s="2">
-        <f>[1]Sheet1!O5</f>
-        <v>2.3159528267242133</v>
-      </c>
-      <c r="H5" s="2">
-        <f>[1]Sheet1!P5</f>
-        <v>0.43087833172117601</v>
-      </c>
-      <c r="I5" s="2">
-        <f>[1]Sheet1!Q5</f>
-        <v>1.0904822752149212</v>
+      <c r="B5" s="11">
+        <f t="array" ref="B5:E5">[1]!'!Error stats!R5C6:R5C9'</f>
+        <v>0.87793323047682681</v>
+      </c>
+      <c r="C5" s="11">
+        <v>2.0962676481595031</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.53910231829652577</v>
+      </c>
+      <c r="E5" s="13">
+        <v>1.3845684193091312</v>
+      </c>
+      <c r="F5" s="11">
+        <f t="array" ref="F5:I5">[1]!'!Error stats!R5C14:R5C17'</f>
+        <v>2.2710956871302348</v>
+      </c>
+      <c r="G5" s="11">
+        <v>5.9312366381643784</v>
+      </c>
+      <c r="H5" s="11">
+        <v>1.0974303795083338</v>
+      </c>
+      <c r="I5" s="11">
+        <v>3.400564659715593</v>
       </c>
     </row>
   </sheetData>

--- a/calibration/table2_source_fixtures.xlsx
+++ b/calibration/table2_source_fixtures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robma\Documents\Work\ilemt_papers\calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F405ED8-5DE9-49C8-AD6C-DC67B6AECF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBA3CF6-D83D-4E5A-AAE2-5FE5501B373D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8196" yWindow="18864" windowWidth="14988" windowHeight="6792" xr2:uid="{5D7C67CD-972B-4CBF-BC15-D765573F58E4}"/>
+    <workbookView xWindow="20700" yWindow="5556" windowWidth="23136" windowHeight="12324" xr2:uid="{5D7C67CD-972B-4CBF-BC15-D765573F58E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Table2" sheetId="2" r:id="rId1"/>
@@ -105,7 +105,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -173,21 +173,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -195,6 +229,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -204,16 +244,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,64 +689,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9B9F5E-DE7B-4195-A914-1E6D8E28BA0D}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="14.77734375" style="6" customWidth="1"/>
+    <col min="2" max="9" width="7.77734375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="10.8" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13"/>
+      <c r="B1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -706,68 +767,69 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <f t="array" ref="B4:E4">[1]!'!Error stats!R4C6:R4C9'</f>
         <v>0.45156805827987784</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>1.3044023148183825</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="10">
         <v>0.27469341877840853</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="11">
         <v>0.64227560401111072</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="12">
         <f t="array" ref="F4:I4">[1]!'!Error stats!R4C14:R4C17'</f>
         <v>4.5594831352365901</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>12.344549508447102</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>1.8246372218996534</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <v>5.2159749292658475</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:9" s="19" customFormat="1" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="17">
         <f t="array" ref="B5:E5">[1]!'!Error stats!R5C6:R5C9'</f>
         <v>0.87793323047682681</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="17">
         <v>2.0962676481595031</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="17">
         <v>0.53910231829652577</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="18">
         <v>1.3845684193091312</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="17">
         <f t="array" ref="F5:I5">[1]!'!Error stats!R5C14:R5C17'</f>
         <v>2.2710956871302348</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="17">
         <v>5.9312366381643784</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="17">
         <v>1.0974303795083338</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="17">
         <v>3.400564659715593</v>
       </c>
     </row>
+    <row r="6" spans="1:9" ht="10.8" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B1:E1"/>

--- a/calibration/table2_source_fixtures.xlsx
+++ b/calibration/table2_source_fixtures.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robma\Documents\Work\ilemt_papers\calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBA3CF6-D83D-4E5A-AAE2-5FE5501B373D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EE752F-36D7-471F-AD1C-612C6257FD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20700" yWindow="5556" windowWidth="23136" windowHeight="12324" xr2:uid="{5D7C67CD-972B-4CBF-BC15-D765573F58E4}"/>
+    <workbookView xWindow="22476" yWindow="13140" windowWidth="22896" windowHeight="7200" xr2:uid="{5D7C67CD-972B-4CBF-BC15-D765573F58E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Table2" sheetId="2" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>RMS</t>
   </si>
@@ -51,22 +52,25 @@
     <t>RxRyRz (degrees)</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>source fixtures?</t>
-  </si>
-  <si>
     <t>Calibrate data:</t>
   </si>
   <si>
-    <t>Test data: source fixtures</t>
+    <t>Test data: sensor fixtures</t>
   </si>
   <si>
-    <t>Test data: no source fixtures</t>
+    <t>Test data: source + sensor fixtures</t>
+  </si>
+  <si>
+    <t>Test data: translation only</t>
+  </si>
+  <si>
+    <t>Translation only</t>
+  </si>
+  <si>
+    <t>Sensor fixture</t>
+  </si>
+  <si>
+    <t>Both fixtures</t>
   </si>
 </sst>
 </file>
@@ -76,7 +80,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,8 +94,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -100,12 +111,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -160,15 +177,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -184,6 +192,66 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -194,86 +262,109 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -293,102 +384,158 @@
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <oleLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" progId="Excel.Sheet.12">
-    <oleItems>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice Requires="x14">
-          <x14:oleItem name="!Error stats!R4C14:R4C17" advise="1">
-            <x14:values cols="4">
-              <value>
-                <val>4.5594831352365901</val>
-              </value>
-              <value>
-                <val>12.344549508447102</val>
-              </value>
-              <value>
-                <val>1.8246372218996534</val>
-              </value>
-              <value>
-                <val>5.2159749292658475</val>
-              </value>
-            </x14:values>
-          </x14:oleItem>
-        </mc:Choice>
-        <mc:Fallback>
-          <oleItem name="!Error stats!R4C14:R4C17" advise="1"/>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice Requires="x14">
-          <x14:oleItem name="!Error stats!R4C6:R4C9" advise="1">
-            <x14:values cols="4">
-              <value>
-                <val>0.45156805827987784</val>
-              </value>
-              <value>
-                <val>1.3044023148183825</val>
-              </value>
-              <value>
-                <val>0.27469341877840853</val>
-              </value>
-              <value>
-                <val>0.64227560401111072</val>
-              </value>
-            </x14:values>
-          </x14:oleItem>
-        </mc:Choice>
-        <mc:Fallback>
-          <oleItem name="!Error stats!R4C6:R4C9" advise="1"/>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice Requires="x14">
-          <x14:oleItem name="!Error stats!R5C14:R5C17" advise="1">
-            <x14:values cols="4">
-              <value>
-                <val>2.2710956871302348</val>
-              </value>
-              <value>
-                <val>5.9312366381643784</val>
-              </value>
-              <value>
-                <val>1.0974303795083338</val>
-              </value>
-              <value>
-                <val>3.400564659715593</val>
-              </value>
-            </x14:values>
-          </x14:oleItem>
-        </mc:Choice>
-        <mc:Fallback>
-          <oleItem name="!Error stats!R5C14:R5C17" advise="1"/>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice Requires="x14">
-          <x14:oleItem name="!Error stats!R5C6:R5C9" advise="1">
-            <x14:values cols="4">
-              <value>
-                <val>0.87793323047682681</val>
-              </value>
-              <value>
-                <val>2.0962676481595031</val>
-              </value>
-              <value>
-                <val>0.53910231829652577</val>
-              </value>
-              <value>
-                <val>1.3845684193091312</val>
-              </value>
-            </x14:values>
-          </x14:oleItem>
-        </mc:Choice>
-        <mc:Fallback>
-          <oleItem name="!Error stats!R5C6:R5C9" advise="1"/>
-        </mc:Fallback>
-      </mc:AlternateContent>
-    </oleItems>
-  </oleLink>
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Error stats"/>
+      <sheetName val="Residue stats"/>
+      <sheetName val="Cal stats"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="R4">
+            <v>0.44045419156778232</v>
+          </cell>
+          <cell r="S4">
+            <v>1.0620358317544398</v>
+          </cell>
+          <cell r="T4">
+            <v>0.26942241141433476</v>
+          </cell>
+          <cell r="U4">
+            <v>0.48903093956696497</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="R5">
+            <v>0.86048770947841613</v>
+          </cell>
+          <cell r="S5">
+            <v>1.746219106615871</v>
+          </cell>
+          <cell r="T5">
+            <v>0.4013744777622526</v>
+          </cell>
+          <cell r="U5">
+            <v>0.89751579883269172</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="F8">
+            <v>2.0195603550988559</v>
+          </cell>
+          <cell r="G8">
+            <v>6.2161674725761831</v>
+          </cell>
+          <cell r="H8">
+            <v>1.1608734504931362</v>
+          </cell>
+          <cell r="I8">
+            <v>3.0251112642908211</v>
+          </cell>
+          <cell r="N8">
+            <v>4.0976584515081971</v>
+          </cell>
+          <cell r="O8">
+            <v>10.902028376660384</v>
+          </cell>
+          <cell r="P8">
+            <v>1.8197530409203637</v>
+          </cell>
+          <cell r="Q8">
+            <v>5.6841943776152215</v>
+          </cell>
+          <cell r="R8">
+            <v>0.25540271052969843</v>
+          </cell>
+          <cell r="S8">
+            <v>0.55201633846561149</v>
+          </cell>
+          <cell r="T8">
+            <v>0.11326039556112689</v>
+          </cell>
+          <cell r="U8">
+            <v>0.32918675093335015</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Error stats"/>
+      <sheetName val="Residue stats"/>
+      <sheetName val="Cal stats"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="B4">
+            <v>0.28068832614114686</v>
+          </cell>
+          <cell r="F4">
+            <v>0.4334366747998819</v>
+          </cell>
+          <cell r="G4">
+            <v>1.0968607376832644</v>
+          </cell>
+          <cell r="H4">
+            <v>0.27469341877840853</v>
+          </cell>
+          <cell r="I4">
+            <v>0.64227560401111072</v>
+          </cell>
+          <cell r="N4">
+            <v>4.5757703431194194</v>
+          </cell>
+          <cell r="O4">
+            <v>12.402570780535587</v>
+          </cell>
+          <cell r="P4">
+            <v>1.8246372218996534</v>
+          </cell>
+          <cell r="Q4">
+            <v>5.2159749292658475</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="F5">
+            <v>0.89609555096667726</v>
+          </cell>
+          <cell r="G5">
+            <v>2.1941738410909193</v>
+          </cell>
+          <cell r="H5">
+            <v>0.53910231829652577</v>
+          </cell>
+          <cell r="I5">
+            <v>1.3845684193091312</v>
+          </cell>
+          <cell r="N5">
+            <v>2.2963169785338899</v>
+          </cell>
+          <cell r="O5">
+            <v>5.9709407594525068</v>
+          </cell>
+          <cell r="P5">
+            <v>1.0974303795083338</v>
+          </cell>
+          <cell r="Q5">
+            <v>3.400564659715593</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
 </externalLink>
 </file>
 
@@ -689,155 +836,279 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9B9F5E-DE7B-4195-A914-1E6D8E28BA0D}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" style="6" customWidth="1"/>
-    <col min="2" max="9" width="7.77734375" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="13.33203125" style="2" customWidth="1"/>
+    <col min="2" max="5" width="6.77734375" style="2" customWidth="1"/>
+    <col min="6" max="13" width="6.77734375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="10.8" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13"/>
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+    </row>
+    <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="23"/>
+      <c r="J2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="22"/>
+    </row>
+    <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="27">
+        <f>'[1]Error stats'!R8</f>
+        <v>0.25540271052969843</v>
+      </c>
+      <c r="C4" s="27">
+        <f>'[1]Error stats'!S8</f>
+        <v>0.55201633846561149</v>
+      </c>
+      <c r="D4" s="27">
+        <f>'[1]Error stats'!T8</f>
+        <v>0.11326039556112689</v>
+      </c>
+      <c r="E4" s="28">
+        <f>'[1]Error stats'!U8</f>
+        <v>0.32918675093335015</v>
+      </c>
+      <c r="F4" s="5">
+        <f>'[1]Error stats'!F8</f>
+        <v>2.0195603550988559</v>
+      </c>
+      <c r="G4" s="5">
+        <f>'[1]Error stats'!G8</f>
+        <v>6.2161674725761831</v>
+      </c>
+      <c r="H4" s="5">
+        <f>'[1]Error stats'!H8</f>
+        <v>1.1608734504931362</v>
+      </c>
+      <c r="I4" s="11">
+        <f>'[1]Error stats'!I8</f>
+        <v>3.0251112642908211</v>
+      </c>
+      <c r="J4" s="20">
+        <f>'[1]Error stats'!N8</f>
+        <v>4.0976584515081971</v>
+      </c>
+      <c r="K4" s="5">
+        <f>'[1]Error stats'!O8</f>
+        <v>10.902028376660384</v>
+      </c>
+      <c r="L4" s="5">
+        <f>'[1]Error stats'!P8</f>
+        <v>1.8197530409203637</v>
+      </c>
+      <c r="M4" s="5">
+        <f>'[1]Error stats'!Q8</f>
+        <v>5.6841943776152215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="B5" s="6">
+        <f>'[1]Error stats'!R4</f>
+        <v>0.44045419156778232</v>
+      </c>
+      <c r="C5" s="7">
+        <f>'[1]Error stats'!S4</f>
+        <v>1.0620358317544398</v>
+      </c>
+      <c r="D5" s="7">
+        <f>'[1]Error stats'!T4</f>
+        <v>0.26942241141433476</v>
+      </c>
+      <c r="E5" s="12">
+        <f>'[1]Error stats'!U4</f>
+        <v>0.48903093956696497</v>
+      </c>
+      <c r="F5" s="29">
+        <f>'[2]Error stats'!F4</f>
+        <v>0.4334366747998819</v>
+      </c>
+      <c r="G5" s="29">
+        <f>'[2]Error stats'!G4</f>
+        <v>1.0968607376832644</v>
+      </c>
+      <c r="H5" s="29">
+        <f>'[2]Error stats'!H4</f>
+        <v>0.27469341877840853</v>
+      </c>
+      <c r="I5" s="29">
+        <f>'[2]Error stats'!I4</f>
+        <v>0.64227560401111072</v>
+      </c>
+      <c r="J5" s="6">
+        <f>'[2]Error stats'!N4</f>
+        <v>4.5757703431194194</v>
+      </c>
+      <c r="K5" s="7">
+        <f>'[2]Error stats'!O4</f>
+        <v>12.402570780535587</v>
+      </c>
+      <c r="L5" s="7">
+        <f>'[2]Error stats'!P4</f>
+        <v>1.8246372218996534</v>
+      </c>
+      <c r="M5" s="7">
+        <f>'[2]Error stats'!Q4</f>
+        <v>5.2159749292658475</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>1</v>
+    <row r="6" spans="1:13" s="3" customFormat="1" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="13">
+        <f>'[1]Error stats'!R5</f>
+        <v>0.86048770947841613</v>
+      </c>
+      <c r="C6" s="14">
+        <f>'[1]Error stats'!S5</f>
+        <v>1.746219106615871</v>
+      </c>
+      <c r="D6" s="14">
+        <f>'[1]Error stats'!T5</f>
+        <v>0.4013744777622526</v>
+      </c>
+      <c r="E6" s="15">
+        <f>'[1]Error stats'!U5</f>
+        <v>0.89751579883269172</v>
+      </c>
+      <c r="F6" s="13">
+        <f>'[2]Error stats'!F5</f>
+        <v>0.89609555096667726</v>
+      </c>
+      <c r="G6" s="14">
+        <f>'[2]Error stats'!G5</f>
+        <v>2.1941738410909193</v>
+      </c>
+      <c r="H6" s="14">
+        <f>'[2]Error stats'!H5</f>
+        <v>0.53910231829652577</v>
+      </c>
+      <c r="I6" s="15">
+        <f>'[2]Error stats'!I5</f>
+        <v>1.3845684193091312</v>
+      </c>
+      <c r="J6" s="30">
+        <f>'[2]Error stats'!N5</f>
+        <v>2.2963169785338899</v>
+      </c>
+      <c r="K6" s="31">
+        <f>'[2]Error stats'!O5</f>
+        <v>5.9709407594525068</v>
+      </c>
+      <c r="L6" s="31">
+        <f>'[2]Error stats'!P5</f>
+        <v>1.0974303795083338</v>
+      </c>
+      <c r="M6" s="31">
+        <f>'[2]Error stats'!Q5</f>
+        <v>3.400564659715593</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="10">
-        <f t="array" ref="B4:E4">[1]!'!Error stats!R4C6:R4C9'</f>
-        <v>0.45156805827987784</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1.3044023148183825</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0.27469341877840853</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0.64227560401111072</v>
-      </c>
-      <c r="F4" s="12">
-        <f t="array" ref="F4:I4">[1]!'!Error stats!R4C14:R4C17'</f>
-        <v>4.5594831352365901</v>
-      </c>
-      <c r="G4" s="10">
-        <v>12.344549508447102</v>
-      </c>
-      <c r="H4" s="10">
-        <v>1.8246372218996534</v>
-      </c>
-      <c r="I4" s="10">
-        <v>5.2159749292658475</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="19" customFormat="1" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="17">
-        <f t="array" ref="B5:E5">[1]!'!Error stats!R5C6:R5C9'</f>
-        <v>0.87793323047682681</v>
-      </c>
-      <c r="C5" s="17">
-        <v>2.0962676481595031</v>
-      </c>
-      <c r="D5" s="17">
-        <v>0.53910231829652577</v>
-      </c>
-      <c r="E5" s="18">
-        <v>1.3845684193091312</v>
-      </c>
-      <c r="F5" s="17">
-        <f t="array" ref="F5:I5">[1]!'!Error stats!R5C14:R5C17'</f>
-        <v>2.2710956871302348</v>
-      </c>
-      <c r="G5" s="17">
-        <v>5.9312366381643784</v>
-      </c>
-      <c r="H5" s="17">
-        <v>1.0974303795083338</v>
-      </c>
-      <c r="I5" s="17">
-        <v>3.400564659715593</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="10.8" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:13" ht="10.8" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/calibration/table2_source_fixtures.xlsx
+++ b/calibration/table2_source_fixtures.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robma\Documents\Work\ilemt_papers\calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EE752F-36D7-471F-AD1C-612C6257FD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A65B2B7-698B-4175-9D0A-37C05161A324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22476" yWindow="13140" windowWidth="22896" windowHeight="7200" xr2:uid="{5D7C67CD-972B-4CBF-BC15-D765573F58E4}"/>
+    <workbookView xWindow="4485" yWindow="7995" windowWidth="21600" windowHeight="7200" xr2:uid="{5D7C67CD-972B-4CBF-BC15-D765573F58E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Table2" sheetId="2" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,9 +48,6 @@
     <t>XYZ (mm)</t>
   </si>
   <si>
-    <t>RxRyRz (degrees)</t>
-  </si>
-  <si>
     <t>Calibrate data:</t>
   </si>
   <si>
@@ -71,6 +67,9 @@
   </si>
   <si>
     <t>Both fixtures</t>
+  </si>
+  <si>
+    <t>Rxyz (degrees)</t>
   </si>
 </sst>
 </file>
@@ -276,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -302,9 +301,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -320,6 +316,33 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -329,9 +352,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -339,30 +359,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -393,142 +389,117 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="4">
+          <cell r="F4">
+            <v>0.4155529639662352</v>
+          </cell>
+          <cell r="G4">
+            <v>1.0221359427840411</v>
+          </cell>
+          <cell r="H4">
+            <v>0.27262142803520317</v>
+          </cell>
+          <cell r="I4">
+            <v>0.63741010822327027</v>
+          </cell>
+          <cell r="N4">
+            <v>4.5804008317642193</v>
+          </cell>
+          <cell r="O4">
+            <v>12.255803737880138</v>
+          </cell>
+          <cell r="P4">
+            <v>1.826251405801596</v>
+          </cell>
+          <cell r="Q4">
+            <v>5.2217222544048152</v>
+          </cell>
           <cell r="R4">
-            <v>0.44045419156778232</v>
+            <v>0.39591645281169513</v>
           </cell>
           <cell r="S4">
-            <v>1.0620358317544398</v>
+            <v>0.97679368462174154</v>
           </cell>
           <cell r="T4">
-            <v>0.26942241141433476</v>
+            <v>0.2758894906224868</v>
           </cell>
           <cell r="U4">
-            <v>0.48903093956696497</v>
+            <v>0.50137649258176764</v>
           </cell>
         </row>
         <row r="5">
+          <cell r="F5">
+            <v>0.89481118478916544</v>
+          </cell>
+          <cell r="G5">
+            <v>2.2557770253709886</v>
+          </cell>
+          <cell r="H5">
+            <v>0.5397699959736455</v>
+          </cell>
+          <cell r="I5">
+            <v>1.3819778197344657</v>
+          </cell>
+          <cell r="N5">
+            <v>2.3063463340270505</v>
+          </cell>
+          <cell r="O5">
+            <v>6.1210123968581813</v>
+          </cell>
+          <cell r="P5">
+            <v>1.099924631276439</v>
+          </cell>
+          <cell r="Q5">
+            <v>3.3949064612528712</v>
+          </cell>
           <cell r="R5">
-            <v>0.86048770947841613</v>
+            <v>0.84429242751204736</v>
           </cell>
           <cell r="S5">
-            <v>1.746219106615871</v>
+            <v>1.7001852677224041</v>
           </cell>
           <cell r="T5">
-            <v>0.4013744777622526</v>
+            <v>0.39854538865688527</v>
           </cell>
           <cell r="U5">
-            <v>0.89751579883269172</v>
+            <v>0.88795241616779896</v>
           </cell>
         </row>
         <row r="8">
           <cell r="F8">
-            <v>2.0195603550988559</v>
+            <v>1.8622583486217901</v>
           </cell>
           <cell r="G8">
-            <v>6.2161674725761831</v>
+            <v>5.5141254897433791</v>
           </cell>
           <cell r="H8">
-            <v>1.1608734504931362</v>
+            <v>1.0877705935526274</v>
           </cell>
           <cell r="I8">
-            <v>3.0251112642908211</v>
+            <v>2.8094892492260954</v>
           </cell>
           <cell r="N8">
-            <v>4.0976584515081971</v>
+            <v>4.1217087686598237</v>
           </cell>
           <cell r="O8">
-            <v>10.902028376660384</v>
+            <v>11.226910693298466</v>
           </cell>
           <cell r="P8">
-            <v>1.8197530409203637</v>
+            <v>1.7929585546385536</v>
           </cell>
           <cell r="Q8">
-            <v>5.6841943776152215</v>
+            <v>5.6715502299317091</v>
           </cell>
           <cell r="R8">
-            <v>0.25540271052969843</v>
+            <v>0.23082321068508216</v>
           </cell>
           <cell r="S8">
-            <v>0.55201633846561149</v>
+            <v>0.61278474561095564</v>
           </cell>
           <cell r="T8">
-            <v>0.11326039556112689</v>
+            <v>0.10886736530310946</v>
           </cell>
           <cell r="U8">
-            <v>0.32918675093335015</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Error stats"/>
-      <sheetName val="Residue stats"/>
-      <sheetName val="Cal stats"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="4">
-          <cell r="B4">
-            <v>0.28068832614114686</v>
-          </cell>
-          <cell r="F4">
-            <v>0.4334366747998819</v>
-          </cell>
-          <cell r="G4">
-            <v>1.0968607376832644</v>
-          </cell>
-          <cell r="H4">
-            <v>0.27469341877840853</v>
-          </cell>
-          <cell r="I4">
-            <v>0.64227560401111072</v>
-          </cell>
-          <cell r="N4">
-            <v>4.5757703431194194</v>
-          </cell>
-          <cell r="O4">
-            <v>12.402570780535587</v>
-          </cell>
-          <cell r="P4">
-            <v>1.8246372218996534</v>
-          </cell>
-          <cell r="Q4">
-            <v>5.2159749292658475</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="F5">
-            <v>0.89609555096667726</v>
-          </cell>
-          <cell r="G5">
-            <v>2.1941738410909193</v>
-          </cell>
-          <cell r="H5">
-            <v>0.53910231829652577</v>
-          </cell>
-          <cell r="I5">
-            <v>1.3845684193091312</v>
-          </cell>
-          <cell r="N5">
-            <v>2.2963169785338899</v>
-          </cell>
-          <cell r="O5">
-            <v>5.9709407594525068</v>
-          </cell>
-          <cell r="P5">
-            <v>1.0974303795083338</v>
-          </cell>
-          <cell r="Q5">
-            <v>3.400564659715593</v>
+            <v>0.30773206977692641</v>
           </cell>
         </row>
       </sheetData>
@@ -839,67 +810,67 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="2" customWidth="1"/>
-    <col min="2" max="5" width="6.77734375" style="2" customWidth="1"/>
-    <col min="6" max="13" width="6.77734375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="13.28515625" style="2" customWidth="1"/>
+    <col min="2" max="5" width="6.7109375" style="2" customWidth="1"/>
+    <col min="6" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16"/>
-      <c r="B1" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="17" t="s">
+      <c r="A1" s="15"/>
+      <c r="B1" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="21" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="21" t="s">
+      <c r="G2" s="29"/>
+      <c r="H2" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="30"/>
+      <c r="J2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="22"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="29"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
-        <v>4</v>
+      <c r="A3" s="17" t="s">
+        <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>0</v>
@@ -939,165 +910,165 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="27">
+      <c r="A4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="20">
         <f>'[1]Error stats'!R8</f>
-        <v>0.25540271052969843</v>
-      </c>
-      <c r="C4" s="27">
+        <v>0.23082321068508216</v>
+      </c>
+      <c r="C4" s="20">
         <f>'[1]Error stats'!S8</f>
-        <v>0.55201633846561149</v>
-      </c>
-      <c r="D4" s="27">
+        <v>0.61278474561095564</v>
+      </c>
+      <c r="D4" s="20">
         <f>'[1]Error stats'!T8</f>
-        <v>0.11326039556112689</v>
-      </c>
-      <c r="E4" s="28">
+        <v>0.10886736530310946</v>
+      </c>
+      <c r="E4" s="21">
         <f>'[1]Error stats'!U8</f>
-        <v>0.32918675093335015</v>
+        <v>0.30773206977692641</v>
       </c>
       <c r="F4" s="5">
         <f>'[1]Error stats'!F8</f>
-        <v>2.0195603550988559</v>
+        <v>1.8622583486217901</v>
       </c>
       <c r="G4" s="5">
         <f>'[1]Error stats'!G8</f>
-        <v>6.2161674725761831</v>
+        <v>5.5141254897433791</v>
       </c>
       <c r="H4" s="5">
         <f>'[1]Error stats'!H8</f>
-        <v>1.1608734504931362</v>
-      </c>
-      <c r="I4" s="11">
+        <v>1.0877705935526274</v>
+      </c>
+      <c r="I4" s="5">
         <f>'[1]Error stats'!I8</f>
-        <v>3.0251112642908211</v>
-      </c>
-      <c r="J4" s="20">
+        <v>2.8094892492260954</v>
+      </c>
+      <c r="J4" s="16">
         <f>'[1]Error stats'!N8</f>
-        <v>4.0976584515081971</v>
+        <v>4.1217087686598237</v>
       </c>
       <c r="K4" s="5">
         <f>'[1]Error stats'!O8</f>
-        <v>10.902028376660384</v>
+        <v>11.226910693298466</v>
       </c>
       <c r="L4" s="5">
         <f>'[1]Error stats'!P8</f>
-        <v>1.8197530409203637</v>
+        <v>1.7929585546385536</v>
       </c>
       <c r="M4" s="5">
         <f>'[1]Error stats'!Q8</f>
-        <v>5.6841943776152215</v>
+        <v>5.6715502299317091</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
-        <v>9</v>
+      <c r="A5" s="17" t="s">
+        <v>8</v>
       </c>
       <c r="B5" s="6">
         <f>'[1]Error stats'!R4</f>
-        <v>0.44045419156778232</v>
+        <v>0.39591645281169513</v>
       </c>
       <c r="C5" s="7">
         <f>'[1]Error stats'!S4</f>
-        <v>1.0620358317544398</v>
+        <v>0.97679368462174154</v>
       </c>
       <c r="D5" s="7">
         <f>'[1]Error stats'!T4</f>
-        <v>0.26942241141433476</v>
-      </c>
-      <c r="E5" s="12">
+        <v>0.2758894906224868</v>
+      </c>
+      <c r="E5" s="11">
         <f>'[1]Error stats'!U4</f>
-        <v>0.48903093956696497</v>
-      </c>
-      <c r="F5" s="29">
-        <f>'[2]Error stats'!F4</f>
-        <v>0.4334366747998819</v>
-      </c>
-      <c r="G5" s="29">
-        <f>'[2]Error stats'!G4</f>
-        <v>1.0968607376832644</v>
-      </c>
-      <c r="H5" s="29">
-        <f>'[2]Error stats'!H4</f>
-        <v>0.27469341877840853</v>
-      </c>
-      <c r="I5" s="29">
-        <f>'[2]Error stats'!I4</f>
-        <v>0.64227560401111072</v>
+        <v>0.50137649258176764</v>
+      </c>
+      <c r="F5" s="22">
+        <f>'[1]Error stats'!F4</f>
+        <v>0.4155529639662352</v>
+      </c>
+      <c r="G5" s="22">
+        <f>'[1]Error stats'!G4</f>
+        <v>1.0221359427840411</v>
+      </c>
+      <c r="H5" s="22">
+        <f>'[1]Error stats'!H4</f>
+        <v>0.27262142803520317</v>
+      </c>
+      <c r="I5" s="22">
+        <f>'[1]Error stats'!I4</f>
+        <v>0.63741010822327027</v>
       </c>
       <c r="J5" s="6">
-        <f>'[2]Error stats'!N4</f>
-        <v>4.5757703431194194</v>
+        <f>'[1]Error stats'!N4</f>
+        <v>4.5804008317642193</v>
       </c>
       <c r="K5" s="7">
-        <f>'[2]Error stats'!O4</f>
-        <v>12.402570780535587</v>
+        <f>'[1]Error stats'!O4</f>
+        <v>12.255803737880138</v>
       </c>
       <c r="L5" s="7">
-        <f>'[2]Error stats'!P4</f>
-        <v>1.8246372218996534</v>
+        <f>'[1]Error stats'!P4</f>
+        <v>1.826251405801596</v>
       </c>
       <c r="M5" s="7">
-        <f>'[2]Error stats'!Q4</f>
-        <v>5.2159749292658475</v>
+        <f>'[1]Error stats'!Q4</f>
+        <v>5.2217222544048152</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="3" customFormat="1" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="13">
+    <row r="6" spans="1:13" s="3" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="12">
         <f>'[1]Error stats'!R5</f>
-        <v>0.86048770947841613</v>
-      </c>
-      <c r="C6" s="14">
+        <v>0.84429242751204736</v>
+      </c>
+      <c r="C6" s="13">
         <f>'[1]Error stats'!S5</f>
-        <v>1.746219106615871</v>
-      </c>
-      <c r="D6" s="14">
+        <v>1.7001852677224041</v>
+      </c>
+      <c r="D6" s="13">
         <f>'[1]Error stats'!T5</f>
-        <v>0.4013744777622526</v>
-      </c>
-      <c r="E6" s="15">
+        <v>0.39854538865688527</v>
+      </c>
+      <c r="E6" s="14">
         <f>'[1]Error stats'!U5</f>
-        <v>0.89751579883269172</v>
-      </c>
-      <c r="F6" s="13">
-        <f>'[2]Error stats'!F5</f>
-        <v>0.89609555096667726</v>
-      </c>
-      <c r="G6" s="14">
-        <f>'[2]Error stats'!G5</f>
-        <v>2.1941738410909193</v>
-      </c>
-      <c r="H6" s="14">
-        <f>'[2]Error stats'!H5</f>
-        <v>0.53910231829652577</v>
-      </c>
-      <c r="I6" s="15">
-        <f>'[2]Error stats'!I5</f>
-        <v>1.3845684193091312</v>
-      </c>
-      <c r="J6" s="30">
-        <f>'[2]Error stats'!N5</f>
-        <v>2.2963169785338899</v>
-      </c>
-      <c r="K6" s="31">
-        <f>'[2]Error stats'!O5</f>
-        <v>5.9709407594525068</v>
-      </c>
-      <c r="L6" s="31">
-        <f>'[2]Error stats'!P5</f>
-        <v>1.0974303795083338</v>
-      </c>
-      <c r="M6" s="31">
-        <f>'[2]Error stats'!Q5</f>
-        <v>3.400564659715593</v>
+        <v>0.88795241616779896</v>
+      </c>
+      <c r="F6" s="12">
+        <f>'[1]Error stats'!F5</f>
+        <v>0.89481118478916544</v>
+      </c>
+      <c r="G6" s="13">
+        <f>'[1]Error stats'!G5</f>
+        <v>2.2557770253709886</v>
+      </c>
+      <c r="H6" s="13">
+        <f>'[1]Error stats'!H5</f>
+        <v>0.5397699959736455</v>
+      </c>
+      <c r="I6" s="13">
+        <f>'[1]Error stats'!I5</f>
+        <v>1.3819778197344657</v>
+      </c>
+      <c r="J6" s="23">
+        <f>'[1]Error stats'!N5</f>
+        <v>2.3063463340270505</v>
+      </c>
+      <c r="K6" s="24">
+        <f>'[1]Error stats'!O5</f>
+        <v>6.1210123968581813</v>
+      </c>
+      <c r="L6" s="24">
+        <f>'[1]Error stats'!P5</f>
+        <v>1.099924631276439</v>
+      </c>
+      <c r="M6" s="24">
+        <f>'[1]Error stats'!Q5</f>
+        <v>3.3949064612528712</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="10.8" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:13" ht="12" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B1:E1"/>

--- a/calibration/table2_source_fixtures.xlsx
+++ b/calibration/table2_source_fixtures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robma\Documents\Work\ilemt_papers\calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A65B2B7-698B-4175-9D0A-37C05161A324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A61DC6-AC84-4155-AECD-682DCAD604F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="7995" windowWidth="21600" windowHeight="7200" xr2:uid="{5D7C67CD-972B-4CBF-BC15-D765573F58E4}"/>
+    <workbookView xWindow="5760" yWindow="5760" windowWidth="34560" windowHeight="19140" xr2:uid="{5D7C67CD-972B-4CBF-BC15-D765573F58E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Table2" sheetId="2" r:id="rId1"/>
@@ -813,12 +813,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="2" customWidth="1"/>
-    <col min="2" max="5" width="6.7109375" style="2" customWidth="1"/>
-    <col min="6" max="13" width="6.7109375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="13.33203125" style="2" customWidth="1"/>
+    <col min="2" max="5" width="6.6640625" style="2" customWidth="1"/>
+    <col min="6" max="13" width="6.6640625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -1015,7 +1015,7 @@
         <v>5.2217222544048152</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="3" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="3" customFormat="1" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>9</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>3.3949064612528712</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="12" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:13" ht="10.8" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B1:E1"/>

--- a/calibration/table2_source_fixtures.xlsx
+++ b/calibration/table2_source_fixtures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robma\Documents\Work\ilemt_papers\calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A61DC6-AC84-4155-AECD-682DCAD604F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18191420-55F5-4D05-B445-D10E9EE7FDD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="5760" windowWidth="34560" windowHeight="19140" xr2:uid="{5D7C67CD-972B-4CBF-BC15-D765573F58E4}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="34560" windowHeight="19140" xr2:uid="{5D7C67CD-972B-4CBF-BC15-D765573F58E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Table2" sheetId="2" r:id="rId1"/>
@@ -101,7 +101,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,6 +120,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -275,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -334,9 +340,6 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -359,6 +362,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -389,6 +398,9 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="4">
+          <cell r="B4">
+            <v>0.26305582094218294</v>
+          </cell>
           <cell r="F4">
             <v>0.4155529639662352</v>
           </cell>
@@ -810,7 +822,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -823,50 +835,50 @@
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15"/>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="25" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="25" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="28" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29" t="s">
+      <c r="G2" s="28"/>
+      <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="28" t="s">
+      <c r="I2" s="29"/>
+      <c r="J2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29" t="s">
+      <c r="K2" s="28"/>
+      <c r="L2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="29"/>
+      <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
@@ -929,19 +941,19 @@
         <f>'[1]Error stats'!U8</f>
         <v>0.30773206977692641</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="30">
         <f>'[1]Error stats'!F8</f>
         <v>1.8622583486217901</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="30">
         <f>'[1]Error stats'!G8</f>
         <v>5.5141254897433791</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="30">
         <f>'[1]Error stats'!H8</f>
         <v>1.0877705935526274</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="30">
         <f>'[1]Error stats'!I8</f>
         <v>2.8094892492260954</v>
       </c>
@@ -982,19 +994,19 @@
         <f>'[1]Error stats'!U4</f>
         <v>0.50137649258176764</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="31">
         <f>'[1]Error stats'!F4</f>
         <v>0.4155529639662352</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="31">
         <f>'[1]Error stats'!G4</f>
         <v>1.0221359427840411</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="31">
         <f>'[1]Error stats'!H4</f>
         <v>0.27262142803520317</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="31">
         <f>'[1]Error stats'!I4</f>
         <v>0.63741010822327027</v>
       </c>
@@ -1051,19 +1063,19 @@
         <f>'[1]Error stats'!I5</f>
         <v>1.3819778197344657</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="22">
         <f>'[1]Error stats'!N5</f>
         <v>2.3063463340270505</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="23">
         <f>'[1]Error stats'!O5</f>
         <v>6.1210123968581813</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="23">
         <f>'[1]Error stats'!P5</f>
         <v>1.099924631276439</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="23">
         <f>'[1]Error stats'!Q5</f>
         <v>3.3949064612528712</v>
       </c>

--- a/calibration/table2_source_fixtures.xlsx
+++ b/calibration/table2_source_fixtures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robma\Documents\Work\ilemt_papers\calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18191420-55F5-4D05-B445-D10E9EE7FDD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A11BEB-30CB-482E-9BBD-134E51B6D8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="34560" windowHeight="19140" xr2:uid="{5D7C67CD-972B-4CBF-BC15-D765573F58E4}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="34560" windowHeight="19140" xr2:uid="{5D7C67CD-972B-4CBF-BC15-D765573F58E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Table2" sheetId="2" r:id="rId1"/>
@@ -101,7 +101,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,12 +120,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -364,10 +358,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -822,14 +816,14 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="2" customWidth="1"/>
-    <col min="2" max="5" width="6.6640625" style="2" customWidth="1"/>
-    <col min="6" max="13" width="6.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="2" customWidth="1"/>
+    <col min="2" max="5" width="6.33203125" style="2" customWidth="1"/>
+    <col min="6" max="13" width="6.33203125" style="1" customWidth="1"/>
     <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>

--- a/calibration/table2_source_fixtures.xlsx
+++ b/calibration/table2_source_fixtures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robma\Documents\Work\ilemt_papers\calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A11BEB-30CB-482E-9BBD-134E51B6D8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3D385C-E345-4B90-8E67-205756D156AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="34560" windowHeight="19140" xr2:uid="{5D7C67CD-972B-4CBF-BC15-D765573F58E4}"/>
+    <workbookView visibility="hidden" xWindow="4180" yWindow="4180" windowWidth="28800" windowHeight="15460" xr2:uid="{5D7C67CD-972B-4CBF-BC15-D765573F58E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Table2" sheetId="2" r:id="rId1"/>
@@ -275,13 +275,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -289,7 +288,7 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -340,6 +339,12 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -352,16 +357,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -382,7 +381,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Error stats"/>
@@ -510,16 +509,22 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2">
+        <row r="4">
+          <cell r="B4">
+            <v>7.092240261140333E-3</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -557,7 +562,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -663,7 +668,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -805,7 +810,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -819,262 +824,263 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="2" customWidth="1"/>
-    <col min="2" max="5" width="6.33203125" style="2" customWidth="1"/>
-    <col min="6" max="13" width="6.33203125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="11.6328125" style="2" customWidth="1"/>
+    <col min="2" max="5" width="6.36328125" style="2" customWidth="1"/>
+    <col min="6" max="13" width="6.36328125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15"/>
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14"/>
+      <c r="B1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="24" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="24" t="s">
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="27" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="27" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28" t="s">
+      <c r="G2" s="29"/>
+      <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="27" t="s">
+      <c r="I2" s="30"/>
+      <c r="J2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28" t="s">
+      <c r="K2" s="29"/>
+      <c r="L2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="28"/>
+      <c r="M2" s="29"/>
     </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="19">
         <f>'[1]Error stats'!R8</f>
         <v>0.23082321068508216</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="19">
         <f>'[1]Error stats'!S8</f>
         <v>0.61278474561095564</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <f>'[1]Error stats'!T8</f>
         <v>0.10886736530310946</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="20">
         <f>'[1]Error stats'!U8</f>
         <v>0.30773206977692641</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="23">
         <f>'[1]Error stats'!F8</f>
         <v>1.8622583486217901</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="23">
         <f>'[1]Error stats'!G8</f>
         <v>5.5141254897433791</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="23">
         <f>'[1]Error stats'!H8</f>
         <v>1.0877705935526274</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="23">
         <f>'[1]Error stats'!I8</f>
         <v>2.8094892492260954</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="15">
         <f>'[1]Error stats'!N8</f>
         <v>4.1217087686598237</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <f>'[1]Error stats'!O8</f>
         <v>11.226910693298466</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <f>'[1]Error stats'!P8</f>
         <v>1.7929585546385536</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <f>'[1]Error stats'!Q8</f>
         <v>5.6715502299317091</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <f>'[1]Error stats'!R4</f>
         <v>0.39591645281169513</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <f>'[1]Error stats'!S4</f>
         <v>0.97679368462174154</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <f>'[1]Error stats'!T4</f>
         <v>0.2758894906224868</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <f>'[1]Error stats'!U4</f>
         <v>0.50137649258176764</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="24">
         <f>'[1]Error stats'!F4</f>
         <v>0.4155529639662352</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="24">
         <f>'[1]Error stats'!G4</f>
         <v>1.0221359427840411</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="24">
         <f>'[1]Error stats'!H4</f>
         <v>0.27262142803520317</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="24">
         <f>'[1]Error stats'!I4</f>
         <v>0.63741010822327027</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <f>'[1]Error stats'!N4</f>
         <v>4.5804008317642193</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="6">
         <f>'[1]Error stats'!O4</f>
         <v>12.255803737880138</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="6">
         <f>'[1]Error stats'!P4</f>
         <v>1.826251405801596</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="6">
         <f>'[1]Error stats'!Q4</f>
         <v>5.2217222544048152</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="3" customFormat="1" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:13" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <f>'[1]Error stats'!R5</f>
         <v>0.84429242751204736</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <f>'[1]Error stats'!S5</f>
         <v>1.7001852677224041</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <f>'[1]Error stats'!T5</f>
         <v>0.39854538865688527</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <f>'[1]Error stats'!U5</f>
         <v>0.88795241616779896</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <f>'[1]Error stats'!F5</f>
         <v>0.89481118478916544</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <f>'[1]Error stats'!G5</f>
         <v>2.2557770253709886</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="12">
         <f>'[1]Error stats'!H5</f>
         <v>0.5397699959736455</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="12">
         <f>'[1]Error stats'!I5</f>
         <v>1.3819778197344657</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="21">
         <f>'[1]Error stats'!N5</f>
         <v>2.3063463340270505</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="22">
         <f>'[1]Error stats'!O5</f>
         <v>6.1210123968581813</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="22">
         <f>'[1]Error stats'!P5</f>
         <v>1.099924631276439</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="22">
         <f>'[1]Error stats'!Q5</f>
         <v>3.3949064612528712</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="10.8" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:13" ht="11" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B1:E1"/>
